--- a/biology/Zoologie/Colibri_insigne/Colibri_insigne.xlsx
+++ b/biology/Zoologie/Colibri_insigne/Colibri_insigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panterpe insignis
 Le Colibri insigne (Panterpe insignis), unique représentant du genre Panterpe, est une espèce de colibris de la sous-famille des Trochilinae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 11 cm de longueur. Il possède un plumage surtout vert foncé métallique avec la calotte et la poitrine bleues, la gorge rouge et orange, un point blanc derrière chaque œil et la queue noir bleuté.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans la cordillère de Talamanca.
 </t>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mâle et femelle défendent agressivement leur territoire.
 </t>
